--- a/biology/Zoologie/Bulletin_de_la_Société_Sciences_Nat/Bulletin_de_la_Société_Sciences_Nat.xlsx
+++ b/biology/Zoologie/Bulletin_de_la_Société_Sciences_Nat/Bulletin_de_la_Société_Sciences_Nat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulletin_de_la_Soci%C3%A9t%C3%A9_Sciences_Nat</t>
+          <t>Bulletin_de_la_Société_Sciences_Nat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Bulletin de la Société Sciences Nat [1] est un périodique d'entomologie qui fut édité par Sciences Nat et qui commença à paraître en 1972.
+Le Bulletin de la Société Sciences Nat  est un périodique d'entomologie qui fut édité par Sciences Nat et qui commença à paraître en 1972.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulletin_de_la_Soci%C3%A9t%C3%A9_Sciences_Nat</t>
+          <t>Bulletin_de_la_Société_Sciences_Nat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce journal a été au début dactylographié et imprimé à Venette par Sciences Nat sur une petite machine à duplication à l'aide de stencils qui était tournée à la main avec une manivelle.
 En 1974, il a été produit par des photocopies sur une machine Rank Xerox, en 1977, sur une petite machine Gestetner et les pages mises ensemble et agrafées.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulletin_de_la_Soci%C3%A9t%C3%A9_Sciences_Nat</t>
+          <t>Bulletin_de_la_Société_Sciences_Nat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Auteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours des vingt premières années, il y a eu plus de 150 auteurs différents qui ont publié dans la revue.
 Ils étaient coléoptéristes comme Vincent Allard (Cetoniidae),  Jean-Pierre Lacroix (Lucanidae), P. Arnaud (Cetoniidae), R.-P. Dechambre (Dynastidae), Thierry Porion (Curculionidae); Th. Deuve (Carabidae), Patrick Bleuzen (Buprestidae), H. Bohmans (Lucanidae), J. Rigout (Cetoniidae), Leplat J. (piègeage aérien) et P. Téocchi (Lamiinae) et lépidoptéristes comme Claude Herbulot (Geometridae), Ph. Darge (Charaxinae), B. Turlin (Charaxinae), G. Deslisle (Papilionidae), J. Haxaire (Sphingidae), Gilles Terral (Saturniidae), Hervé de Toulgoët (Arctiidae), et J.-C. Weiss (Parnassiinae)
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulletin_de_la_Soci%C3%A9t%C3%A9_Sciences_Nat</t>
+          <t>Bulletin_de_la_Société_Sciences_Nat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début, le Bulletin a été envoyé gratuitement aux entomologistes français, puis en 1975 une petite contribution a été demandée et plus de 400 abonnements ont été reçus. Ils étaient 450 en 1977.
 En 1978, les abonnés ont été de 610, dont 550 en France, le nombre a augmenté à 670 l'année suivante.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bulletin_de_la_Soci%C3%A9t%C3%A9_Sciences_Nat</t>
+          <t>Bulletin_de_la_Société_Sciences_Nat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,9 +634,11 @@
           <t>Taxa décrits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">832 taxa ont été décrits[2] dont : 667 Coléoptères, 158 Lépidoptères, 1 Hyménoptère et 6 Arachnides.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">832 taxa ont été décrits dont : 667 Coléoptères, 158 Lépidoptères, 1 Hyménoptère et 6 Arachnides.
 </t>
         </is>
       </c>
